--- a/dane.xlsx
+++ b/dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\7sem\MED\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA433F69-6407-458D-9C36-CA80AE70BA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07B128A-6125-4187-BA68-BA560FA6B996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{429B6E99-D087-463F-99FB-AC72612B0D08}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dane.xlsx
+++ b/dane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\7sem\MED\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07B128A-6125-4187-BA68-BA560FA6B996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349E6381-E7A7-4EA8-95B9-F719AE9D8C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{429B6E99-D087-463F-99FB-AC72612B0D08}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{429B6E99-D087-463F-99FB-AC72612B0D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -47,13 +47,13 @@
     <t>Zatrudnienie</t>
   </si>
   <si>
-    <t>Przychód</t>
-  </si>
-  <si>
     <t>Zysk</t>
   </si>
   <si>
     <t>PRZYCHOD I INNE OD 2009 R</t>
+  </si>
+  <si>
+    <t>Przychod</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>242</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
